--- a/input.xlsx
+++ b/input.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DF3E35-F40B-4499-AE7A-B154276F4AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GTU_input" sheetId="2" r:id="rId1"/>
     <sheet name="ISO" sheetId="1" r:id="rId2"/>
+    <sheet name="Gas_composition0" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" iterateCount="10"/>
+  <calcPr calcId="181029" iterateCount="2000" iterateDelta="0.1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>N</t>
   </si>
@@ -45,12 +57,33 @@
   </si>
   <si>
     <t>Pout</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
+    <t>Ar</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>Fraction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -247,7 +280,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -263,9 +296,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -303,7 +336,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -338,6 +371,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -373,9 +423,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -548,17 +615,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="A6:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>1</v>
       </c>
@@ -578,7 +645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -591,7 +658,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -601,7 +668,7 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -609,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -623,20 +690,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F3" sqref="A3:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -656,7 +723,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -673,32 +740,83 @@
         <v>542.1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="2"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="3"/>
       <c r="C9" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905BA815-9C62-4FF6-AA86-3A246DF71B44}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>0.78029999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.1237</v>
+      </c>
+      <c r="D2">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="E2">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="F2">
+        <v>6.4999999999999997E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DF3E35-F40B-4499-AE7A-B154276F4AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242BE43A-518C-4598-8768-04729BE082CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GTU_input" sheetId="2" r:id="rId1"/>
@@ -619,8 +619,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="A6:F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905BA815-9C62-4FF6-AA86-3A246DF71B44}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242BE43A-518C-4598-8768-04729BE082CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4125C85B-8A6A-4127-A294-AFF397E76F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/input.xlsx
+++ b/input.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4125C85B-8A6A-4127-A294-AFF397E76F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C227D72-B50C-4F36-997C-1B6658FC8857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -620,7 +620,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -650,7 +650,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="10">
-        <v>15</v>
+        <v>-40</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C227D72-B50C-4F36-997C-1B6658FC8857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B50F8A-9856-41C8-AE6E-07818DD27AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -650,7 +650,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="10">
-        <v>-40</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,28 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B50F8A-9856-41C8-AE6E-07818DD27AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84A2497-4577-4856-98A5-0B9FD6A414A9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="-105" windowWidth="14625" windowHeight="25215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GTU_input" sheetId="2" r:id="rId1"/>
     <sheet name="ISO" sheetId="1" r:id="rId2"/>
     <sheet name="Gas_composition0" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" iterateCount="2000" iterateDelta="0.1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029" iterateCount="2000" iterateDelta="0.1"/>
 </workbook>
 </file>
 
@@ -280,7 +270,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -296,9 +286,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -336,7 +326,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -442,7 +432,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -620,12 +610,12 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1</v>
       </c>
@@ -645,7 +635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -658,17 +648,17 @@
       <c r="F2" s="10"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -676,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -698,12 +688,12 @@
       <selection activeCell="F3" sqref="A3:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.81640625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -723,7 +713,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -740,26 +730,26 @@
         <v>542.1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="C9" s="7"/>
     </row>
@@ -776,9 +766,9 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -798,7 +788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,18 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84A2497-4577-4856-98A5-0B9FD6A414A9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84F8A95-CE7F-4E3D-B460-30A010FF4747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="-105" windowWidth="14625" windowHeight="25215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GTU_input" sheetId="2" r:id="rId1"/>
     <sheet name="ISO" sheetId="1" r:id="rId2"/>
     <sheet name="Gas_composition0" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterateCount="2000" iterateDelta="0.1"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -270,7 +280,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -286,9 +296,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -326,7 +336,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -432,7 +442,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -610,12 +620,12 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>1</v>
       </c>
@@ -635,7 +645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -648,17 +658,17 @@
       <c r="F2" s="10"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -666,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -688,12 +698,12 @@
       <selection activeCell="F3" sqref="A3:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -713,7 +723,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -730,26 +740,26 @@
         <v>542.1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="2"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="3"/>
       <c r="C9" s="7"/>
     </row>
@@ -766,9 +776,9 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -788,7 +798,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>

--- a/input.xlsx
+++ b/input.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84F8A95-CE7F-4E3D-B460-30A010FF4747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447E486B-617F-4E16-B7A1-FBC82E1F41AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -650,7 +650,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="10">
-        <v>15</v>
+        <v>-40</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -663,7 +663,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447E486B-617F-4E16-B7A1-FBC82E1F41AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDBC56E-3465-4D83-9E61-0745CAA2F02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,6 +11,7 @@
     <sheet name="GTU_input" sheetId="2" r:id="rId1"/>
     <sheet name="ISO" sheetId="1" r:id="rId2"/>
     <sheet name="Gas_composition0" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -84,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +113,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -242,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -278,6 +286,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -293,6 +304,2087 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$AA$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$AA$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.69099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68340000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67903000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67696999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67573000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67512000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67481999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67174</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67796999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.67620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.67532000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.67491000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.67471000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.67462999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.67164999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.67789999999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.67615000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.67528999999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.67488000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.67469999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.67166999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.67791000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.67617000000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.67530999999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.67490000000000006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.67471000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E99C-4055-BFA0-3D5A12901E67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1075210495"/>
+        <c:axId val="1075217151"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1075210495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1075217151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1075217151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1075210495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$AA$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$AA$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>8.407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3016199999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2529000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.2293800000000008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2200299999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2157400000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2142199999999992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2525700000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.2296600000000009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.2212399999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.2167899999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.2145499999999991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.2134499999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.2128099999999993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.2521100000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.2294999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.2213899999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.2164000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.2143300000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.2130700000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.2527600000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.2300299999999993</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.2219499999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.2171099999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.2145600000000005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.2134999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-94CF-475D-BECF-7BB4192C3312}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1075210495"/>
+        <c:axId val="1075217151"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1075210495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1075217151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1075217151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1075210495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>140608</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>116114</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>458108</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>137885</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BC5BBD4-F28E-FDD0-78FA-337D85C993C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>554147</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>169203</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>263861</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>8756</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B533C37-5FA8-49A4-879D-21AAF9E1E580}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -620,7 +2712,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -821,4 +2913,276 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F1C2F3-C4EE-4923-B806-E446D834DF5C}">
+  <dimension ref="B5:AA42"/>
+  <sheetViews>
+    <sheetView topLeftCell="F4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>11</v>
+      </c>
+      <c r="M5">
+        <v>12</v>
+      </c>
+      <c r="N5">
+        <v>13</v>
+      </c>
+      <c r="O5">
+        <v>14</v>
+      </c>
+      <c r="P5">
+        <v>15</v>
+      </c>
+      <c r="Q5">
+        <v>16</v>
+      </c>
+      <c r="R5">
+        <v>17</v>
+      </c>
+      <c r="S5">
+        <v>18</v>
+      </c>
+      <c r="T5">
+        <v>19</v>
+      </c>
+      <c r="U5">
+        <v>20</v>
+      </c>
+      <c r="V5">
+        <v>21</v>
+      </c>
+      <c r="W5">
+        <v>22</v>
+      </c>
+      <c r="X5">
+        <v>23</v>
+      </c>
+      <c r="Y5">
+        <v>24</v>
+      </c>
+      <c r="Z5">
+        <v>25</v>
+      </c>
+      <c r="AA5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B6" s="13">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="C6">
+        <v>0.68340000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.67903000000000002</v>
+      </c>
+      <c r="E6">
+        <v>0.67696999999999996</v>
+      </c>
+      <c r="F6">
+        <v>0.67573000000000005</v>
+      </c>
+      <c r="G6">
+        <v>0.67512000000000005</v>
+      </c>
+      <c r="H6">
+        <v>0.67481999999999998</v>
+      </c>
+      <c r="I6">
+        <v>0.67174</v>
+      </c>
+      <c r="J6">
+        <v>0.67796999999999996</v>
+      </c>
+      <c r="K6">
+        <v>0.67620000000000002</v>
+      </c>
+      <c r="L6">
+        <v>0.67532000000000003</v>
+      </c>
+      <c r="M6">
+        <v>0.67491000000000001</v>
+      </c>
+      <c r="N6">
+        <v>0.67471000000000003</v>
+      </c>
+      <c r="O6">
+        <v>0.67462999999999995</v>
+      </c>
+      <c r="P6">
+        <v>0.67164999999999997</v>
+      </c>
+      <c r="Q6">
+        <v>0.67789999999999995</v>
+      </c>
+      <c r="R6">
+        <v>0.67615000000000003</v>
+      </c>
+      <c r="S6">
+        <v>0.67528999999999995</v>
+      </c>
+      <c r="T6">
+        <v>0.67488000000000004</v>
+      </c>
+      <c r="U6">
+        <v>0.67469999999999997</v>
+      </c>
+      <c r="V6">
+        <v>0.67166999999999999</v>
+      </c>
+      <c r="W6">
+        <v>0.67791000000000001</v>
+      </c>
+      <c r="X6">
+        <v>0.67617000000000005</v>
+      </c>
+      <c r="Y6">
+        <v>0.67530999999999997</v>
+      </c>
+      <c r="Z6">
+        <v>0.67490000000000006</v>
+      </c>
+      <c r="AA6">
+        <v>0.67471000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B7" s="13">
+        <v>8.407</v>
+      </c>
+      <c r="C7">
+        <v>8.3016199999999998</v>
+      </c>
+      <c r="D7">
+        <v>8.2529000000000003</v>
+      </c>
+      <c r="E7">
+        <v>8.2293800000000008</v>
+      </c>
+      <c r="F7">
+        <v>8.2200299999999995</v>
+      </c>
+      <c r="G7">
+        <v>8.2157400000000003</v>
+      </c>
+      <c r="H7">
+        <v>8.2142199999999992</v>
+      </c>
+      <c r="I7">
+        <v>8.2525700000000004</v>
+      </c>
+      <c r="J7">
+        <v>8.2296600000000009</v>
+      </c>
+      <c r="K7">
+        <v>8.2212399999999999</v>
+      </c>
+      <c r="L7">
+        <v>8.2167899999999996</v>
+      </c>
+      <c r="M7">
+        <v>8.2145499999999991</v>
+      </c>
+      <c r="N7">
+        <v>8.2134499999999999</v>
+      </c>
+      <c r="O7">
+        <v>8.2128099999999993</v>
+      </c>
+      <c r="P7">
+        <v>8.2521100000000001</v>
+      </c>
+      <c r="Q7">
+        <v>8.2294999999999998</v>
+      </c>
+      <c r="R7">
+        <v>8.2213899999999995</v>
+      </c>
+      <c r="S7">
+        <v>8.2164000000000001</v>
+      </c>
+      <c r="T7">
+        <v>8.2143300000000004</v>
+      </c>
+      <c r="U7">
+        <v>8.2130700000000001</v>
+      </c>
+      <c r="V7">
+        <v>8.2527600000000003</v>
+      </c>
+      <c r="W7">
+        <v>8.2300299999999993</v>
+      </c>
+      <c r="X7">
+        <v>8.2219499999999996</v>
+      </c>
+      <c r="Y7">
+        <v>8.2171099999999999</v>
+      </c>
+      <c r="Z7">
+        <v>8.2145600000000005</v>
+      </c>
+      <c r="AA7">
+        <v>8.2134999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L40">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L42">
+        <f>L40/L41*100</f>
+        <v>2.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDBC56E-3465-4D83-9E61-0745CAA2F02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782CFAE3-E386-4334-924C-AEBB65E79818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2712,7 +2712,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2742,7 +2742,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="10">
-        <v>-40</v>
+        <v>-3.1</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -2755,7 +2755,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782CFAE3-E386-4334-924C-AEBB65E79818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647008E4-F19B-4EA1-A3D0-9ECADBFB2618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2712,7 +2712,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2742,7 +2742,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="10">
-        <v>-3.1</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647008E4-F19B-4EA1-A3D0-9ECADBFB2618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782CFAE3-E386-4334-924C-AEBB65E79818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2712,7 +2712,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2742,7 +2742,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="10">
-        <v>15</v>
+        <v>-3.1</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647008E4-F19B-4EA1-A3D0-9ECADBFB2618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFFF445-909E-4647-9F65-AA7B26210674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2712,7 +2712,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2742,7 +2742,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="10">
-        <v>15</v>
+        <v>-40</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -2755,7 +2755,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFFF445-909E-4647-9F65-AA7B26210674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB5D39B-7C35-465B-AD24-261FF4DF407C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GTU_input" sheetId="2" r:id="rId1"/>
@@ -2712,7 +2712,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2742,7 +2742,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="10">
-        <v>-40</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -2755,7 +2755,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB5D39B-7C35-465B-AD24-261FF4DF407C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F0549C-F71B-41C2-8D24-21EDC338D1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GTU_input" sheetId="2" r:id="rId1"/>
@@ -2712,7 +2712,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2742,7 +2742,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="10">
-        <v>15</v>
+        <v>-40</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F0549C-F71B-41C2-8D24-21EDC338D1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC21B20A-E33E-4BEF-8F10-1F459DCA2139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2712,7 +2712,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2742,7 +2742,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="10">
-        <v>-40</v>
+        <v>-3.1</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC21B20A-E33E-4BEF-8F10-1F459DCA2139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A05F9A4-046F-44AF-944C-C18AB9403F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2712,7 +2712,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2742,7 +2742,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="10">
-        <v>-3.1</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -2755,7 +2755,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A05F9A4-046F-44AF-944C-C18AB9403F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3114A98F-FFE9-4AD5-A664-977843AB88FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2712,7 +2712,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2755,7 +2755,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3114A98F-FFE9-4AD5-A664-977843AB88FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D44A28-0657-4E01-B042-FF944859534F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,7 +291,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -309,7 +309,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -754,7 +754,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2388,9 +2388,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2428,7 +2428,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2534,7 +2534,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2712,12 +2712,12 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="B1">
         <v>1</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15.5">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2750,7 +2750,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15.5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2760,7 +2760,7 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2790,12 +2790,12 @@
       <selection activeCell="F3" sqref="A3:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2815,7 +2815,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2832,26 +2832,26 @@
         <v>542.1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="33" customHeight="1"/>
+    <row r="4" spans="1:8" ht="25.5" customHeight="1"/>
+    <row r="5" spans="1:8" ht="15" thickBot="1">
       <c r="B5" s="2"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="B6" s="1"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="B7" s="2"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="B8" s="2"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="15" thickBot="1">
       <c r="B9" s="3"/>
       <c r="C9" s="7"/>
     </row>
@@ -2868,9 +2868,9 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2923,9 +2923,9 @@
       <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:27">
       <c r="B5">
         <v>1</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:27">
       <c r="B6" s="13">
         <v>0.69099999999999995</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>0.67471000000000003</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:27">
       <c r="B7" s="13">
         <v>8.407</v>
       </c>
@@ -3165,17 +3165,17 @@
         <v>8.2134999999999998</v>
       </c>
     </row>
-    <row r="40" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="12:12">
       <c r="L40">
         <v>0.2</v>
       </c>
     </row>
-    <row r="41" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="12:12">
       <c r="L41">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="12:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="12:12">
       <c r="L42">
         <f>L40/L41*100</f>
         <v>2.5</v>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D44A28-0657-4E01-B042-FF944859534F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795EA5B1-5B8D-4CFA-99F6-707F4E6B5AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2715,9 +2715,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>1</v>
       </c>
@@ -2737,12 +2737,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="10">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -2750,7 +2750,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2760,7 +2760,7 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2790,12 +2790,12 @@
       <selection activeCell="F3" sqref="A3:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2815,7 +2815,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" thickBot="1">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2832,26 +2832,26 @@
         <v>542.1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="33" customHeight="1"/>
-    <row r="4" spans="1:8" ht="25.5" customHeight="1"/>
-    <row r="5" spans="1:8" ht="15" thickBot="1">
+    <row r="3" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="2"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1">
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="3"/>
       <c r="C9" s="7"/>
     </row>
@@ -2868,9 +2868,9 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2923,9 +2923,9 @@
       <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="5" spans="2:27">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>1</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:27">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B6" s="13">
         <v>0.69099999999999995</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>0.67471000000000003</v>
       </c>
     </row>
-    <row r="7" spans="2:27">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B7" s="13">
         <v>8.407</v>
       </c>
@@ -3165,17 +3165,17 @@
         <v>8.2134999999999998</v>
       </c>
     </row>
-    <row r="40" spans="12:12">
+    <row r="40" spans="12:12" x14ac:dyDescent="0.35">
       <c r="L40">
         <v>0.2</v>
       </c>
     </row>
-    <row r="41" spans="12:12">
+    <row r="41" spans="12:12" x14ac:dyDescent="0.35">
       <c r="L41">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="12:12">
+    <row r="42" spans="12:12" x14ac:dyDescent="0.35">
       <c r="L42">
         <f>L40/L41*100</f>
         <v>2.5</v>

--- a/input.xlsx
+++ b/input.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795EA5B1-5B8D-4CFA-99F6-707F4E6B5AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD68F986-60BC-4DC0-99EA-3D944EFB3492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6840" yWindow="0" windowWidth="10800" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GTU_input" sheetId="2" r:id="rId1"/>
@@ -2742,7 +2742,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="10">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD68F986-60BC-4DC0-99EA-3D944EFB3492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AB8D95-A824-429A-9DB1-6DA221AD58D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="0" windowWidth="10800" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GTU_input" sheetId="2" r:id="rId1"/>
@@ -2742,7 +2742,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="10">
-        <v>-25</v>
+        <v>-29</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AB8D95-A824-429A-9DB1-6DA221AD58D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7D8C94-1BB0-4B19-BEA1-A0EA878EF41B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
     <sheet name="Gas_composition0" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterate="1" iterateCount="10"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2742,7 +2742,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="10">
-        <v>-29</v>
+        <v>0</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7D8C94-1BB0-4B19-BEA1-A0EA878EF41B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76016FD2-AC86-417C-9B1E-3853C708916E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11900" yWindow="3470" windowWidth="10800" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GTU_input" sheetId="2" r:id="rId1"/>
@@ -2742,7 +2742,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="10">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76016FD2-AC86-417C-9B1E-3853C708916E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51408783-5637-4E03-93F0-1D8182022554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11900" yWindow="3470" windowWidth="10800" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GTU_input" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Gas_composition0" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029" iterate="1" iterateCount="10"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2742,7 +2742,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="10">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51408783-5637-4E03-93F0-1D8182022554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC2218D-D663-4B37-89FE-8C030CEA3217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2742,7 +2742,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC2218D-D663-4B37-89FE-8C030CEA3217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10C6EC2-A1F6-4638-BDC9-04E35CDB17CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GTU_input" sheetId="2" r:id="rId1"/>
@@ -2712,7 +2712,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2742,7 +2742,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10C6EC2-A1F6-4638-BDC9-04E35CDB17CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A060EA75-DFD2-4FCC-8D9B-F4528FD8EC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GTU_input" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Gas_composition0" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateCount="2000" iterateDelta="0.1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2712,7 +2712,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2742,7 +2742,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
